--- a/mySQL_Create/datasets.xlsx
+++ b/mySQL_Create/datasets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="159">
   <si>
     <t>Column name</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>UNIQUE (dataset_name, dataset_version)</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -959,15 +962,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>157</v>
       </c>
@@ -1009,7 +1019,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1022,11 +1032,14 @@
       <c r="D3" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1036,14 +1049,14 @@
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1053,7 +1066,7 @@
       <c r="C5" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E5" s="7"/>
@@ -1062,7 +1075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1119,7 +1132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1129,14 +1142,14 @@
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
@@ -1146,14 +1159,14 @@
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
@@ -1163,14 +1176,14 @@
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>33</v>
       </c>
@@ -1180,14 +1193,14 @@
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
@@ -1197,14 +1210,14 @@
       <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>37</v>
       </c>
@@ -1214,14 +1227,14 @@
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>39</v>
       </c>
@@ -1231,14 +1244,14 @@
       <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>41</v>
       </c>
@@ -1248,14 +1261,14 @@
       <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>43</v>
       </c>
@@ -1265,14 +1278,14 @@
       <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>45</v>
       </c>
@@ -1282,14 +1295,14 @@
       <c r="C18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>47</v>
       </c>
@@ -1299,14 +1312,14 @@
       <c r="C19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>50</v>
       </c>
@@ -1323,7 +1336,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
@@ -1342,7 +1355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
@@ -1359,7 +1372,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>57</v>
       </c>
@@ -1369,14 +1382,14 @@
       <c r="C23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1395,7 +1408,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
@@ -1414,7 +1427,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
@@ -1424,7 +1437,7 @@
       <c r="C26" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1435,7 +1448,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>68</v>
       </c>
@@ -1445,7 +1458,7 @@
       <c r="C27" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -1456,7 +1469,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
@@ -1466,7 +1479,7 @@
       <c r="C28" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1477,7 +1490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>72</v>
       </c>
@@ -1487,7 +1500,7 @@
       <c r="C29" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -1498,7 +1511,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>74</v>
       </c>
@@ -1508,7 +1521,7 @@
       <c r="C30" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -1519,7 +1532,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>76</v>
       </c>
@@ -1529,7 +1542,7 @@
       <c r="C31" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -1540,7 +1553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -1550,7 +1563,7 @@
       <c r="C32" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -1561,7 +1574,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -1571,7 +1584,7 @@
       <c r="C33" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -1582,7 +1595,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
@@ -1592,7 +1605,7 @@
       <c r="C34" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -1603,7 +1616,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
@@ -1613,7 +1626,7 @@
       <c r="C35" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -1624,7 +1637,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>86</v>
       </c>
@@ -1634,7 +1647,7 @@
       <c r="C36" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -1645,7 +1658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>88</v>
       </c>
@@ -1655,7 +1668,7 @@
       <c r="C37" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -1666,7 +1679,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>90</v>
       </c>
@@ -1676,7 +1689,7 @@
       <c r="C38" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -1687,7 +1700,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>92</v>
       </c>
@@ -1697,7 +1710,7 @@
       <c r="C39" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -1708,7 +1721,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>94</v>
       </c>
@@ -1718,7 +1731,7 @@
       <c r="C40" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -1729,7 +1742,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>96</v>
       </c>
@@ -1739,7 +1752,7 @@
       <c r="C41" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -1750,7 +1763,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>98</v>
       </c>
@@ -1760,7 +1773,7 @@
       <c r="C42" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -1771,7 +1784,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>100</v>
       </c>
@@ -1781,7 +1794,7 @@
       <c r="C43" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -1792,7 +1805,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>102</v>
       </c>
@@ -1802,7 +1815,7 @@
       <c r="C44" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E44" s="5" t="s">
@@ -1813,7 +1826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>104</v>
       </c>
@@ -1823,7 +1836,7 @@
       <c r="C45" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -1834,7 +1847,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>106</v>
       </c>
@@ -1844,7 +1857,7 @@
       <c r="C46" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -1855,7 +1868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>108</v>
       </c>
@@ -1865,7 +1878,7 @@
       <c r="C47" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -1876,7 +1889,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>110</v>
       </c>
@@ -1893,7 +1906,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>112</v>
       </c>
@@ -1910,7 +1923,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>114</v>
       </c>
@@ -1927,7 +1940,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>116</v>
       </c>
@@ -1946,7 +1959,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -1965,7 +1978,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>122</v>
       </c>
@@ -1982,7 +1995,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>124</v>
       </c>
@@ -1992,14 +2005,14 @@
       <c r="C54" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>126</v>
       </c>
@@ -2016,7 +2029,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>128</v>
       </c>
@@ -2026,14 +2039,14 @@
       <c r="C56" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
@@ -2050,7 +2063,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>132</v>
       </c>
@@ -2067,7 +2080,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>135</v>
       </c>
@@ -2077,14 +2090,14 @@
       <c r="C59" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>137</v>
       </c>
@@ -2101,7 +2114,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>138</v>
       </c>
@@ -2120,7 +2133,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>141</v>
       </c>
@@ -2137,7 +2150,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>143</v>
       </c>
@@ -2147,14 +2160,14 @@
       <c r="C63" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>144</v>
       </c>
@@ -2164,7 +2177,7 @@
       <c r="C64" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E64" s="7"/>
@@ -2173,7 +2186,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>145</v>
       </c>
@@ -2183,14 +2196,14 @@
       <c r="C65" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>147</v>
       </c>
@@ -2200,14 +2213,14 @@
       <c r="C66" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>149</v>
       </c>
@@ -2217,14 +2230,14 @@
       <c r="C67" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>150</v>
       </c>
@@ -2234,14 +2247,14 @@
       <c r="C68" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>151</v>
       </c>
@@ -2251,14 +2264,14 @@
       <c r="C69" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="7" t="s">
         <v>155</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>152</v>
       </c>
